--- a/src/test/java/Resources/DataSet.xlsx
+++ b/src/test/java/Resources/DataSet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>ComputeName</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Create011</t>
+  </si>
+  <si>
+    <t>Read001</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,6 +658,23 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/java/Resources/DataSet.xlsx
+++ b/src/test/java/Resources/DataSet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>ComputeName</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Read001</t>
+  </si>
+  <si>
+    <t>04 Jun 2017</t>
+  </si>
+  <si>
+    <t>04 Jun 2018</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>

--- a/src/test/java/Resources/DataSet.xlsx
+++ b/src/test/java/Resources/DataSet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>ComputeName</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>04 Jun 2018</t>
+  </si>
+  <si>
+    <t>EDIT_ComputeName</t>
+  </si>
+  <si>
+    <t>EDIT_Introduced</t>
+  </si>
+  <si>
+    <t>EDIT_Discontinued</t>
+  </si>
+  <si>
+    <t>EDIT_Company</t>
+  </si>
+  <si>
+    <t>Update001</t>
+  </si>
+  <si>
+    <t>ABCUPDATE1</t>
+  </si>
+  <si>
+    <t>2017-12-04</t>
   </si>
 </sst>
 </file>
@@ -448,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,9 +482,13 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -479,8 +504,20 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -497,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -514,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -531,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -548,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -565,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -582,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -599,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -616,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -633,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -650,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -667,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -682,6 +719,20 @@
       </c>
       <c r="E13" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
